--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/같은값입력(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/같은값입력(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_출판사\길벗\직장인엑셀_2018\부록CD\Chapter01\Section01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DF5CB2-1C6D-4AEC-8976-BFBA0D6C1AC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E280AD-0561-DE4B-BD7E-F99909DDCC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDD34817-B3EB-4AF0-AA0A-58ACBF872ECA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DDD34817-B3EB-4AF0-AA0A-58ACBF872ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>제품코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,13 +184,17 @@
   </si>
   <si>
     <t>DOVE MOCHA ALMOND SINGLE 47G (12*12)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,19 +597,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4187731-1912-48AF-AC32-3E06D6FCBA26}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -627,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -638,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -649,43 +653,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -696,7 +708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="17">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -707,7 +719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -718,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -729,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -740,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -751,34 +763,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -789,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -800,34 +818,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -838,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -849,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="17">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
